--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/109.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/109.xlsx
@@ -479,13 +479,13 @@
         <v>-7.902530226106858</v>
       </c>
       <c r="E2" t="n">
-        <v>-21.52724094805577</v>
+        <v>-21.57537810966741</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0076563194575243</v>
+        <v>0.06748282708009154</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.81552486465802</v>
+        <v>-8.830318999437305</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.898973808504738</v>
       </c>
       <c r="E3" t="n">
-        <v>-21.67364225868554</v>
+        <v>-21.71800021798905</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1334260211089113</v>
+        <v>-0.05791042104254305</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.290445527151354</v>
+        <v>-8.280295948895638</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.837617921649955</v>
       </c>
       <c r="E4" t="n">
-        <v>-21.92344606455055</v>
+        <v>-21.96809247525922</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2759405712794821</v>
+        <v>-0.2035099345461371</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.176893453660387</v>
+        <v>-8.163047786213285</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.70543279046326</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.00162617335939</v>
+        <v>-22.02836904092142</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2946067994973633</v>
+        <v>-0.2125301522155952</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.717820597863941</v>
+        <v>-7.694055135483867</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.487127284927792</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.97392017144458</v>
+        <v>-21.99337352976804</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4309807570430889</v>
+        <v>-0.3437119844686571</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.971029687949549</v>
+        <v>-6.926515280426289</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.165757708682781</v>
       </c>
       <c r="E7" t="n">
-        <v>-22.22310307343751</v>
+        <v>-22.24502049122189</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5279884312964153</v>
+        <v>-0.4498523235493806</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.385258219197002</v>
+        <v>-6.325719893571712</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.739531562608651</v>
       </c>
       <c r="E8" t="n">
-        <v>-22.6010721943187</v>
+        <v>-22.62184069548935</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.7003601464032356</v>
+        <v>-0.6185475054922809</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.977676383722904</v>
+        <v>-5.919282085704471</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.207847805048541</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.83996862586363</v>
+        <v>-22.84200245272027</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8327886754073608</v>
+        <v>-0.7666306344842677</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.704009335340472</v>
+        <v>-5.639357108532389</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.574502950750578</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.3165196812093</v>
+        <v>-23.31611878264621</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9239588754615908</v>
+        <v>-0.8644596618912359</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.433520141421536</v>
+        <v>-5.372964902367928</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.864873847964735</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.76055884088998</v>
+        <v>-23.75370934226943</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.164546903382475</v>
+        <v>-1.107061960641289</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.117895636107241</v>
+        <v>-5.074305250881827</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.105087559657918</v>
       </c>
       <c r="E12" t="n">
-        <v>-24.23857659829573</v>
+        <v>-24.24072776131717</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.107746421602658</v>
+        <v>-1.056094064053701</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.95661707758145</v>
+        <v>-4.910000397105416</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.324482939371825</v>
       </c>
       <c r="E13" t="n">
-        <v>-24.85382877845577</v>
+        <v>-24.85691863079566</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.036332698297631</v>
+        <v>-0.9884204310018644</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.854427056049194</v>
+        <v>-4.80354716158521</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.566978262917537</v>
       </c>
       <c r="E14" t="n">
-        <v>-25.4378597607637</v>
+        <v>-25.44666975113788</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.92860343198516</v>
+        <v>-0.874223008604465</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.74007807443892</v>
+        <v>-4.698379734871003</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.866966976437394</v>
       </c>
       <c r="E15" t="n">
-        <v>-26.08044637831666</v>
+        <v>-26.09272756356635</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.90451529515187</v>
+        <v>-0.861633815922159</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.710284466591941</v>
+        <v>-4.655102246085072</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.251359912776461</v>
       </c>
       <c r="E16" t="n">
-        <v>-26.83460013257263</v>
+        <v>-26.83477858132327</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8272152075790778</v>
+        <v>-0.7865240034257447</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.619339160853589</v>
+        <v>-4.562822241472052</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.7491490854191972</v>
       </c>
       <c r="E17" t="n">
-        <v>-27.64381877117065</v>
+        <v>-27.65587261760103</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7302955354493559</v>
+        <v>-0.6953880264195831</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.649699893497131</v>
+        <v>-4.587203718717357</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.3728514032619166</v>
       </c>
       <c r="E18" t="n">
-        <v>-28.4769886544097</v>
+        <v>-28.47478860131959</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5856298222573425</v>
+        <v>-0.5566086774953354</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.843578349811509</v>
+        <v>-4.76768629621639</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.1234592848175496</v>
       </c>
       <c r="E19" t="n">
-        <v>-29.17359146433177</v>
+        <v>-29.17636597572875</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.3068195386509169</v>
+        <v>-0.2797784416700103</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.073933686359942</v>
+        <v>-4.985687112412127</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.000606597427284884</v>
       </c>
       <c r="E20" t="n">
-        <v>-29.60171935116409</v>
+        <v>-29.6190215464661</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.126204957966478</v>
+        <v>-0.1007283431829842</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.388243048827037</v>
+        <v>-5.293220311361678</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.008406287845523077</v>
       </c>
       <c r="E21" t="n">
-        <v>-30.21575905762113</v>
+        <v>-30.24892852470972</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3215058458712584</v>
+        <v>0.3491580687105293</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.664843501329616</v>
+        <v>-5.566999806902048</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.07731160165907865</v>
       </c>
       <c r="E22" t="n">
-        <v>-30.74345890280847</v>
+        <v>-30.76293915066969</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3388275972007381</v>
+        <v>0.3658638051747777</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.937948313922353</v>
+        <v>-5.832071981212443</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.240426794822779</v>
       </c>
       <c r="E23" t="n">
-        <v>-31.10569031058506</v>
+        <v>-31.12419520157633</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6130422143522637</v>
+        <v>0.6326617989091934</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.244293484203244</v>
+        <v>-6.133269027262472</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.4619450840628087</v>
       </c>
       <c r="E24" t="n">
-        <v>-31.31684162816025</v>
+        <v>-31.3388152695236</v>
       </c>
       <c r="F24" t="n">
-        <v>0.828006957283647</v>
+        <v>0.8590130388336217</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.462108518138038</v>
+        <v>-6.348082210980981</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-0.7233139632220792</v>
       </c>
       <c r="E25" t="n">
-        <v>-31.60161650014431</v>
+        <v>-31.61588262218197</v>
       </c>
       <c r="F25" t="n">
-        <v>1.046599343310281</v>
+        <v>1.07755164578472</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.495050646407311</v>
+        <v>-6.393520640802088</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.009839857725775</v>
       </c>
       <c r="E26" t="n">
-        <v>-31.49456680578635</v>
+        <v>-31.50149452851676</v>
       </c>
       <c r="F26" t="n">
-        <v>1.09010172641209</v>
+        <v>1.129981355425516</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.613648174984934</v>
+        <v>-6.50815807381751</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.311813780276332</v>
       </c>
       <c r="E27" t="n">
-        <v>-31.58156912748653</v>
+        <v>-31.58304560756034</v>
       </c>
       <c r="F27" t="n">
-        <v>1.336414781374132</v>
+        <v>1.3626931932838</v>
       </c>
       <c r="G27" t="n">
-        <v>-6.90933531029595</v>
+        <v>-6.814312572830591</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.620564098530941</v>
       </c>
       <c r="E28" t="n">
-        <v>-31.41145857805566</v>
+        <v>-31.4176578387629</v>
       </c>
       <c r="F28" t="n">
-        <v>1.479237338977319</v>
+        <v>1.508160703601988</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.03936333692842</v>
+        <v>-6.931462955375607</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.928976535233131</v>
       </c>
       <c r="E29" t="n">
-        <v>-31.22316825659016</v>
+        <v>-31.23321027669481</v>
       </c>
       <c r="F29" t="n">
-        <v>1.505725978182264</v>
+        <v>1.528420748058483</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.318887415537415</v>
+        <v>-7.212913302690167</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.235179790952777</v>
       </c>
       <c r="E30" t="n">
-        <v>-31.07734384877069</v>
+        <v>-31.07289974152866</v>
       </c>
       <c r="F30" t="n">
-        <v>1.611856539249254</v>
+        <v>1.632356145042228</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.351775764731152</v>
+        <v>-7.262517166361886</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.535350205333135</v>
       </c>
       <c r="E31" t="n">
-        <v>-30.80951916359422</v>
+        <v>-30.79768532247286</v>
       </c>
       <c r="F31" t="n">
-        <v>1.562389567769808</v>
+        <v>1.594759682235652</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.345390721762961</v>
+        <v>-7.262976733007376</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.824349933284383</v>
       </c>
       <c r="E32" t="n">
-        <v>-30.41248291593206</v>
+        <v>-30.40564563982868</v>
       </c>
       <c r="F32" t="n">
-        <v>1.512947041324697</v>
+        <v>1.544486024623166</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.373883853783341</v>
+        <v>-7.311412124037902</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-3.101860904860243</v>
       </c>
       <c r="E33" t="n">
-        <v>-29.90584735683083</v>
+        <v>-29.88829826668204</v>
       </c>
       <c r="F33" t="n">
-        <v>1.489103354834753</v>
+        <v>1.526230472982105</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.635607058389899</v>
+        <v>-7.577911888353436</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.364596770391571</v>
       </c>
       <c r="E34" t="n">
-        <v>-29.29917782822566</v>
+        <v>-29.26330474033967</v>
       </c>
       <c r="F34" t="n">
-        <v>1.486042836536065</v>
+        <v>1.535397360857571</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.614535438793496</v>
+        <v>-7.554659771694388</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.608535078592426</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.85273083266301</v>
+        <v>-28.82224298584093</v>
       </c>
       <c r="F35" t="n">
-        <v>1.508111813533318</v>
+        <v>1.558409916180139</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.631231397244011</v>
+        <v>-7.583152903714769</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.83357770457238</v>
       </c>
       <c r="E36" t="n">
-        <v>-28.22620460266786</v>
+        <v>-28.18458937621669</v>
       </c>
       <c r="F36" t="n">
-        <v>1.407911617795897</v>
+        <v>1.446974782662547</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.532551682642199</v>
+        <v>-7.502591848561744</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.035790943788477</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.56342149774767</v>
+        <v>-27.51157846893091</v>
       </c>
       <c r="F37" t="n">
-        <v>1.526162026885969</v>
+        <v>1.571380451398065</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.459519698064224</v>
+        <v>-7.432346597897911</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.211624981767223</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.03933462863499</v>
+        <v>-27.0059818237889</v>
       </c>
       <c r="F38" t="n">
-        <v>1.390232968965132</v>
+        <v>1.431853084423179</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.426724240000958</v>
+        <v>-7.395503042148839</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.361362938879561</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.29659426090984</v>
+        <v>-26.26585218573068</v>
       </c>
       <c r="F39" t="n">
-        <v>1.442750680729533</v>
+        <v>1.481808956589316</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.410878968745287</v>
+        <v>-7.401927197171966</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.483221442164597</v>
       </c>
       <c r="E40" t="n">
-        <v>-25.63720412675529</v>
+        <v>-25.60804120079414</v>
       </c>
       <c r="F40" t="n">
-        <v>1.481799178575582</v>
+        <v>1.5405650411159</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.114375369287496</v>
+        <v>-7.104445796340792</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.577907856362627</v>
       </c>
       <c r="E41" t="n">
-        <v>-25.0933901149346</v>
+        <v>-25.0762492568592</v>
       </c>
       <c r="F41" t="n">
-        <v>1.503858377559103</v>
+        <v>1.547986553539877</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.14772817413359</v>
+        <v>-7.150798470446012</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.65007936120893</v>
       </c>
       <c r="E42" t="n">
-        <v>-24.38127204172037</v>
+        <v>-24.35576609289568</v>
       </c>
       <c r="F42" t="n">
-        <v>1.515259541572748</v>
+        <v>1.568877279882204</v>
       </c>
       <c r="G42" t="n">
-        <v>-6.873753118318543</v>
+        <v>-6.869152562856776</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.702409177297443</v>
       </c>
       <c r="E43" t="n">
-        <v>-23.67903465138417</v>
+        <v>-23.66034886713883</v>
       </c>
       <c r="F43" t="n">
-        <v>1.465582342798025</v>
+        <v>1.513954176739282</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.872760649924559</v>
+        <v>-6.879355920188027</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.740342130316401</v>
       </c>
       <c r="E44" t="n">
-        <v>-22.98988513243071</v>
+        <v>-22.96308359678628</v>
       </c>
       <c r="F44" t="n">
-        <v>1.580850457699279</v>
+        <v>1.626728898138409</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.774320496659227</v>
+        <v>-6.7685465795494</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.771693059766187</v>
       </c>
       <c r="E45" t="n">
-        <v>-22.17650594898894</v>
+        <v>-22.15515076699425</v>
       </c>
       <c r="F45" t="n">
-        <v>1.629173401571866</v>
+        <v>1.669884161752667</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.666322334969076</v>
+        <v>-6.680251115532916</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.801506862420228</v>
       </c>
       <c r="E46" t="n">
-        <v>-21.66783411852764</v>
+        <v>-21.6486300995544</v>
       </c>
       <c r="F46" t="n">
-        <v>1.636590024988976</v>
+        <v>1.678909268428992</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.522267747635427</v>
+        <v>-6.515965817783973</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.837577347352856</v>
       </c>
       <c r="E47" t="n">
-        <v>-21.00909911129325</v>
+        <v>-20.99045243910284</v>
       </c>
       <c r="F47" t="n">
-        <v>1.708580651104299</v>
+        <v>1.750743446324574</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.495475990004732</v>
+        <v>-6.49305593160561</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.888452241084695</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.37002280067073</v>
+        <v>-20.3569202622674</v>
       </c>
       <c r="F48" t="n">
-        <v>1.743424603044802</v>
+        <v>1.78486871425564</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.461546282348343</v>
+        <v>-6.456515494282288</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.95796074471207</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.63014983547303</v>
+        <v>-19.61754597577012</v>
       </c>
       <c r="F49" t="n">
-        <v>1.895379825475386</v>
+        <v>1.937963075286215</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.191614435212235</v>
+        <v>-6.171857958463032</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.051153095185827</v>
       </c>
       <c r="E50" t="n">
-        <v>-19.24843084632491</v>
+        <v>-19.23858438649494</v>
       </c>
       <c r="F50" t="n">
-        <v>1.910208183302738</v>
+        <v>1.940304909575467</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.18154308106639</v>
+        <v>-6.158735864032232</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.172353129789501</v>
       </c>
       <c r="E51" t="n">
-        <v>-18.66074777588739</v>
+        <v>-18.65196711955442</v>
       </c>
       <c r="F51" t="n">
-        <v>1.874195758721043</v>
+        <v>1.910530857755955</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.215785685162262</v>
+        <v>-6.189081929655173</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.320562588982987</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.12697089516449</v>
+        <v>-18.10036491979474</v>
       </c>
       <c r="F52" t="n">
-        <v>1.902644889679621</v>
+        <v>1.945277029559119</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.233963012693452</v>
+        <v>-6.206403680984653</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.496538945899618</v>
       </c>
       <c r="E53" t="n">
-        <v>-17.74439632981466</v>
+        <v>-17.73617790927138</v>
       </c>
       <c r="F53" t="n">
-        <v>1.995941807720959</v>
+        <v>2.033885390015086</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.132697013459043</v>
+        <v>-6.096674810863614</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-5.700405586098682</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.12920281773702</v>
+        <v>-17.13136864777906</v>
       </c>
       <c r="F54" t="n">
-        <v>2.055529023414918</v>
+        <v>2.093247711393167</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.119306023650562</v>
+        <v>-6.086461675518628</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-5.926806169419667</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.87698873148661</v>
+        <v>-16.87998569269603</v>
       </c>
       <c r="F55" t="n">
-        <v>2.004487791724326</v>
+        <v>2.03587521580992</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.347896428720038</v>
+        <v>-6.310837756668823</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.172790478753796</v>
       </c>
       <c r="E56" t="n">
-        <v>-16.33623523796462</v>
+        <v>-16.35548814700653</v>
       </c>
       <c r="F56" t="n">
-        <v>2.036642789888026</v>
+        <v>2.07321256125255</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.213947418580302</v>
+        <v>-6.168714327047605</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.435049378273335</v>
       </c>
       <c r="E57" t="n">
-        <v>-16.23780486271302</v>
+        <v>-16.26176588536777</v>
       </c>
       <c r="F57" t="n">
-        <v>2.077827783734917</v>
+        <v>2.103636850985362</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.365702191729342</v>
+        <v>-6.323128719932247</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.705485346103425</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.97840882537511</v>
+        <v>-15.9945914381046</v>
       </c>
       <c r="F58" t="n">
-        <v>1.949569577588271</v>
+        <v>1.979891198176877</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.532485771987279</v>
+        <v>-6.497993828541194</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.979789983338286</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.704472881615</v>
+        <v>-15.71669050977542</v>
       </c>
       <c r="F59" t="n">
-        <v>2.012984885659025</v>
+        <v>2.044836765396975</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.335546797374211</v>
+        <v>-6.301225969168468</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.25309678253439</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.43602729256643</v>
+        <v>-15.43627663191664</v>
       </c>
       <c r="F60" t="n">
-        <v>2.078795807094567</v>
+        <v>2.098063383157078</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.36131675256972</v>
+        <v>-6.313785827809572</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.516008355754728</v>
       </c>
       <c r="E61" t="n">
-        <v>-15.2837102836277</v>
+        <v>-15.28321649393414</v>
       </c>
       <c r="F61" t="n">
-        <v>2.016187185156854</v>
+        <v>2.037087689512915</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.211405135009507</v>
+        <v>-6.164798232547207</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.764399993962784</v>
       </c>
       <c r="E62" t="n">
-        <v>-15.22985787298863</v>
+        <v>-15.23151524631651</v>
       </c>
       <c r="F62" t="n">
-        <v>2.043511844536042</v>
+        <v>2.077153100787283</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.294053796094704</v>
+        <v>-6.249554055592044</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.994121812396648</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.13160350198424</v>
+        <v>-15.12695894546067</v>
       </c>
       <c r="F63" t="n">
-        <v>2.006184277107146</v>
+        <v>2.039522414932639</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.359669157255569</v>
+        <v>-6.309659506013896</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.197891685470276</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.18439499813319</v>
+        <v>-15.19186540062583</v>
       </c>
       <c r="F64" t="n">
-        <v>1.858438489588976</v>
+        <v>1.886320495750992</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.346595952893439</v>
+        <v>-6.302179325507517</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.374242894533202</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.18272784679157</v>
+        <v>-15.18360297902075</v>
       </c>
       <c r="F65" t="n">
-        <v>1.864916423687638</v>
+        <v>1.904502712289049</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.437560814659258</v>
+        <v>-6.385351110327473</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.520590012829876</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.17658236515986</v>
+        <v>-15.16733725317452</v>
       </c>
       <c r="F66" t="n">
-        <v>1.916642116339599</v>
+        <v>1.944871241989165</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.348419552454798</v>
+        <v>-6.281860612968618</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.632124004456864</v>
       </c>
       <c r="E67" t="n">
-        <v>-15.03970483990684</v>
+        <v>-15.02742365465715</v>
       </c>
       <c r="F67" t="n">
-        <v>1.724562814552244</v>
+        <v>1.754111972055878</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.151187237429715</v>
+        <v>-6.096225022231857</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.709988005853452</v>
       </c>
       <c r="E68" t="n">
-        <v>-15.14343489860217</v>
+        <v>-15.12346819455769</v>
       </c>
       <c r="F68" t="n">
-        <v>1.689479301275262</v>
+        <v>1.715337258594376</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.27173059074037</v>
+        <v>-6.212774056932242</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.753140361461178</v>
       </c>
       <c r="E69" t="n">
-        <v>-15.04243779474544</v>
+        <v>-15.01342642799717</v>
       </c>
       <c r="F69" t="n">
-        <v>1.684952080916499</v>
+        <v>1.721927639850977</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.03439864139285</v>
+        <v>-5.95175486931452</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.759641032527979</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.08062093837605</v>
+        <v>-15.05823417593245</v>
       </c>
       <c r="F70" t="n">
-        <v>1.55907482111404</v>
+        <v>1.580997127905287</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.01455905152691</v>
+        <v>-5.937268741967851</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.732416655558135</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.09623642630898</v>
+        <v>-15.0803618210121</v>
       </c>
       <c r="F71" t="n">
-        <v>1.46403741662808</v>
+        <v>1.490164269324874</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.9743225250122</v>
+        <v>-5.875965484863605</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.669915460916515</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.20572573509354</v>
+        <v>-15.19053070175117</v>
       </c>
       <c r="F72" t="n">
-        <v>1.379985610572078</v>
+        <v>1.401712357088648</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.831333741175539</v>
+        <v>-5.728904158306803</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.571296487317126</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.32995051057498</v>
+        <v>-15.31633951545749</v>
       </c>
       <c r="F73" t="n">
-        <v>1.29960544867313</v>
+        <v>1.322539779885828</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.982492055486815</v>
+        <v>-5.8844039107159</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.439829299188791</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.47129169909749</v>
+        <v>-15.46132301409585</v>
       </c>
       <c r="F74" t="n">
-        <v>1.187045843576147</v>
+        <v>1.217978590023118</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.884100792290152</v>
+        <v>-5.778483576944188</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.273741388129562</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.6940544079816</v>
+        <v>-15.67651265134311</v>
       </c>
       <c r="F75" t="n">
-        <v>1.103927837831726</v>
+        <v>1.121381592346612</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.913205050168896</v>
+        <v>-5.803358843883051</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-8.074290475590614</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.72022037273333</v>
+        <v>-15.7050791184665</v>
       </c>
       <c r="F76" t="n">
-        <v>0.92153365864773</v>
+        <v>0.944291985613219</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.019990738156053</v>
+        <v>-5.905724869662516</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.84687785672406</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.79396615231388</v>
+        <v>-15.77511903084192</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7593212998103589</v>
+        <v>0.7808964871140546</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.936496278882879</v>
+        <v>-5.822841536247707</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.592208390519789</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.94661072471269</v>
+        <v>-15.93204637325616</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7752301281553001</v>
+        <v>0.7976217796057706</v>
       </c>
       <c r="G78" t="n">
-        <v>-5.915336657162871</v>
+        <v>-5.802107258125121</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.31554766167727</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.05405153962002</v>
+        <v>-16.03646578191973</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4953784860862216</v>
+        <v>0.5238373950585336</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.935249582131815</v>
+        <v>-5.825941166601331</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.02615196826637</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.55471028782644</v>
+        <v>-16.53835167084975</v>
       </c>
       <c r="F80" t="n">
-        <v>0.4789905350683227</v>
+        <v>0.5031324509771488</v>
       </c>
       <c r="G80" t="n">
-        <v>-5.874709010098808</v>
+        <v>-5.771384738973428</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-6.729258290206639</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.06966938111859</v>
+        <v>-17.06356790054868</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3118353902885007</v>
+        <v>0.3448850767088457</v>
       </c>
       <c r="G81" t="n">
-        <v>-5.943267553393556</v>
+        <v>-5.830473275966962</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-6.435612562444479</v>
       </c>
       <c r="E82" t="n">
-        <v>-17.48983063126127</v>
+        <v>-17.48053174020039</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.005074923831793208</v>
+        <v>0.02025990975256006</v>
       </c>
       <c r="G82" t="n">
-        <v>-5.981543588154633</v>
+        <v>-5.868539083432761</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-6.160650924506093</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.99664952812</v>
+        <v>-17.98767820051922</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.01069239272187848</v>
+        <v>0.02010346153281877</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.005822396255732</v>
+        <v>-5.886525739696141</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-5.915189229259472</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.79599237284686</v>
+        <v>-18.81302078376433</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1016376984602304</v>
+        <v>-0.0657132760021393</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.00352945203515</v>
+        <v>-5.892910782664332</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-5.712788842235822</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.46868060567942</v>
+        <v>-19.46653922067172</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2725476005138431</v>
+        <v>-0.2390383474480081</v>
       </c>
       <c r="G85" t="n">
-        <v>-6.093961412052476</v>
+        <v>-5.98332318665419</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-5.569360754679115</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.14484981140123</v>
+        <v>-20.15026194200291</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.392636276185875</v>
+        <v>-0.3525073078222371</v>
       </c>
       <c r="G86" t="n">
-        <v>-6.319672192077338</v>
+        <v>-6.193897601419084</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-5.492144515489041</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.88577880208219</v>
+        <v>-20.87977021264275</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4946698494983899</v>
+        <v>-0.4654873675097746</v>
       </c>
       <c r="G87" t="n">
-        <v>-6.65794746620605</v>
+        <v>-6.539843727321986</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-5.486041947686871</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.71294987389553</v>
+        <v>-21.70693639544923</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6154674311661245</v>
+        <v>-0.5826230830341899</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.90710103415777</v>
+        <v>-6.790063098770693</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-5.557828640983324</v>
       </c>
       <c r="E89" t="n">
-        <v>-22.7040102339016</v>
+        <v>-22.69258462485361</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8405866413600902</v>
+        <v>-0.7996754318977459</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.943700139563495</v>
+        <v>-6.815691272767061</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-5.704040920876383</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.77776325605466</v>
+        <v>-23.76536962364703</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.111281173567437</v>
+        <v>-1.077434579027785</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.339871033010214</v>
+        <v>-7.22289176570554</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-5.917049070031423</v>
       </c>
       <c r="E91" t="n">
-        <v>-25.01390953029917</v>
+        <v>-25.00656624198506</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.081678236988267</v>
+        <v>-1.059682595094017</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.694148026614338</v>
+        <v>-7.571805518776659</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.193454105706216</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.25145894951448</v>
+        <v>-26.22784015734041</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.310009524693796</v>
+        <v>-1.288693454754047</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.01362995834663</v>
+        <v>-7.894005738326955</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.520243956345572</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.53733620160925</v>
+        <v>-27.51616924637894</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.570730482892636</v>
+        <v>-1.548319275414698</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.345598413617022</v>
+        <v>-8.238010928503691</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.879895721818402</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.02534455360975</v>
+        <v>-29.00587652826569</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.858424091976246</v>
+        <v>-1.844822874872489</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.678862455707145</v>
+        <v>-8.564880149611891</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-7.261528095681544</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.6299361633587</v>
+        <v>-30.6022448284645</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.137473936919151</v>
+        <v>-2.133064052725194</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.997879931787081</v>
+        <v>-8.887823498205957</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.644134750852409</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.45323505079566</v>
+        <v>-32.41150493268311</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.185425316269852</v>
+        <v>-2.189316965735917</v>
       </c>
       <c r="G96" t="n">
-        <v>-9.367738190276063</v>
+        <v>-9.261035615405644</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.0057747404579</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.15583902570909</v>
+        <v>-34.1041548896155</v>
       </c>
       <c r="F97" t="n">
-        <v>-2.551215921045562</v>
+        <v>-2.561873956015437</v>
       </c>
       <c r="G97" t="n">
-        <v>-9.784130016124342</v>
+        <v>-9.69131710976283</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.330069375970785</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.14392433409886</v>
+        <v>-36.08887900578426</v>
       </c>
       <c r="F98" t="n">
-        <v>-2.943123600504331</v>
+        <v>-2.953028728416701</v>
       </c>
       <c r="G98" t="n">
-        <v>-10.24378955274482</v>
+        <v>-10.13686208355852</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.59973915271101</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.20856171201077</v>
+        <v>-38.15046319890779</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.209770035025873</v>
+        <v>-3.222662346133927</v>
       </c>
       <c r="G99" t="n">
-        <v>-10.61579897425524</v>
+        <v>-10.51732948694871</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.790504874315372</v>
       </c>
       <c r="E100" t="n">
-        <v>-40.406153187165</v>
+        <v>-40.33868244789814</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.575477526684844</v>
+        <v>-3.591166349720774</v>
       </c>
       <c r="G100" t="n">
-        <v>-10.76909867357423</v>
+        <v>-10.6620880912712</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.902736738379167</v>
       </c>
       <c r="E101" t="n">
-        <v>-42.31104959921078</v>
+        <v>-42.23754826997358</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.030497395788618</v>
+        <v>-4.040598083975665</v>
       </c>
       <c r="G101" t="n">
-        <v>-11.05378065442782</v>
+        <v>-10.9502265999797</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.911870907627069</v>
       </c>
       <c r="E102" t="n">
-        <v>-44.53333300354637</v>
+        <v>-44.45283794998605</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.256301066943952</v>
+        <v>-4.260530057883834</v>
       </c>
       <c r="G102" t="n">
-        <v>-11.20377538510477</v>
+        <v>-11.10869886856388</v>
       </c>
     </row>
   </sheetData>
